--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\СаняВолков\Desktop\Практика и диплом\Опрос\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Специальности" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="88">
   <si>
     <t>Положительная корреляция</t>
   </si>
@@ -131,33 +137,237 @@
 Литература, оценка
 Обществознание, участие в городском этапе олимпиады</t>
   </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Алгебра, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Геометрия, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Физика, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Иностранный язык, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Биология, оценка</t>
+  </si>
+  <si>
+    <t>История, базовый уровень</t>
+  </si>
+  <si>
+    <t>Литература, участие в олимпиадах вузов</t>
+  </si>
+  <si>
+    <t>Геометрия, базовый уровень</t>
+  </si>
+  <si>
+    <t>Литература, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Ничего, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>История, оценка</t>
+  </si>
+  <si>
+    <t>Геометрия, оценка</t>
+  </si>
+  <si>
+    <t>Химия, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Информатика, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Иностранный язык, базовый уровень</t>
+  </si>
+  <si>
+    <t>Литература, оценка</t>
+  </si>
+  <si>
+    <t>Математика, участие в олимпиадах в вузов</t>
+  </si>
+  <si>
+    <t>Физика, участие в олимпиадах вузов</t>
+  </si>
+  <si>
+    <t>Русский язык, оценка</t>
+  </si>
+  <si>
+    <t>Обществознание, участие в олимпиадах вузов</t>
+  </si>
+  <si>
+    <t>Русский язык, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Физика, базовый уровень</t>
+  </si>
+  <si>
+    <t>Литература, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Обществознание, оценка</t>
+  </si>
+  <si>
+    <t>Физика, оценка</t>
+  </si>
+  <si>
+    <t>Математика, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Информатика, оценка</t>
+  </si>
+  <si>
+    <t>Химия, базовый уровень</t>
+  </si>
+  <si>
+    <t>Обществознание, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Биология, базовый уровень</t>
+  </si>
+  <si>
+    <t>География, базовый уровень</t>
+  </si>
+  <si>
+    <t>География, оценка</t>
+  </si>
+  <si>
+    <t>Физика, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>История, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Алгебра, базовый уровень</t>
+  </si>
+  <si>
+    <t>Иностранный язык, участие в олимпиадах вузов</t>
+  </si>
+  <si>
+    <t>Химия, оценка</t>
+  </si>
+  <si>
+    <t>Математика, участие в региональном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Обществознание, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Биология, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Иностранный язык, участие в региональном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Литература, базовый уровень</t>
+  </si>
+  <si>
+    <t>Биология, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Информатика, базовый уровень</t>
+  </si>
+  <si>
+    <t>Русский язык, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>География, продвинутый уровень</t>
+  </si>
+  <si>
+    <t>Иностранный язык, оценка</t>
+  </si>
+  <si>
+    <t>Ничего, участие в региональном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Русский язык, базовый уровень</t>
+  </si>
+  <si>
+    <t>Русский язык, участие в региональном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Алгебра, оценка</t>
+  </si>
+  <si>
+    <t>Ничего, участие в олимпиадах вузов</t>
+  </si>
+  <si>
+    <t>Ничего, участие в финальном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Обществознание, базовый уровень</t>
+  </si>
+  <si>
+    <t>Ничего, базовый уровень</t>
+  </si>
+  <si>
+    <t>Иностранный язык, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Ничего, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Обществознание, участие в региональном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Литература, участие в региональном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Химия, участие в олимпиадах вузов</t>
+  </si>
+  <si>
+    <t>География, участие в городском этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Русский язык, участие в олимпиадах вузов</t>
+  </si>
+  <si>
+    <t>История, участие в региональном этапе олимпиады</t>
+  </si>
+  <si>
+    <t>Информатика, участие в городском этапе олимпиады</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -166,26 +376,213 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,20 +870,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="3" width="54.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,84 +891,1306 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="91.7109375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="17"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12"/>
+      <c r="B75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12"/>
+      <c r="B85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12"/>
+      <c r="B95" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
+      <c r="B100" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="12"/>
+      <c r="B105" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="12"/>
+      <c r="B115" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="12"/>
+      <c r="B120" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>